--- a/data/horarios/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios/horarios-de-nivelacion-procesados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C9F877-9E09-4C0B-A806-BA2A0F2B0748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427EDAC0-8927-411D-B6AC-294642E0588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
@@ -1176,7 +1176,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}" name="Table1" displayName="Table1" ref="A1:Q81" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:Q81" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}"/>
+  <autoFilter ref="A1:Q81" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="GESTION DEL RIESGO FINANCIERO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{0A177087-4C15-4674-A4A9-7D9BD880913A}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{8DF6EEB5-31DE-43FB-8CC5-CF192B52A0D0}" name="escuela" dataDxfId="15"/>
@@ -1519,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1746F96C-94FA-48F7-B6FA-3EEFCDB601C7}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1597,7 +1603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1645,7 +1651,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1686,14 +1692,14 @@
         <v>40</v>
       </c>
       <c r="N3" s="6" t="b">
-        <f t="shared" ref="N2:N3" si="0">NOT(ISBLANK(O3))</f>
+        <f t="shared" ref="N3" si="0">NOT(ISBLANK(O3))</f>
         <v>0</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1741,7 +1747,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1852,7 +1858,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -2065,7 +2071,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2121,7 +2127,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>8</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -2283,7 +2289,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>8</v>
       </c>
@@ -2441,7 +2447,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>8</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>8</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -2597,7 +2603,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8</v>
       </c>
@@ -2652,7 +2658,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>8</v>
       </c>
@@ -2754,7 +2760,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>8</v>
       </c>
@@ -2802,7 +2808,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -2850,7 +2856,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>8</v>
       </c>
@@ -2898,7 +2904,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>10</v>
       </c>
@@ -2946,7 +2952,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>10</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>10</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>4</v>
       </c>
@@ -3102,7 +3108,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>4</v>
       </c>
@@ -3150,7 +3156,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>4</v>
       </c>
@@ -3204,7 +3210,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>4</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>9</v>
       </c>
@@ -3306,7 +3312,7 @@
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>4</v>
       </c>
@@ -3354,7 +3360,7 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>4</v>
       </c>
@@ -3402,7 +3408,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>4</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>4</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>4</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>4</v>
       </c>
@@ -3618,7 +3624,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>4</v>
       </c>
@@ -3672,7 +3678,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>4</v>
       </c>
@@ -3726,7 +3732,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>6</v>
       </c>
@@ -3774,7 +3780,7 @@
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>7</v>
       </c>
@@ -3822,7 +3828,7 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>7</v>
       </c>
@@ -3876,7 +3882,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>7</v>
       </c>
@@ -3930,7 +3936,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>10</v>
       </c>
@@ -3978,7 +3984,7 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>6</v>
       </c>
@@ -4026,7 +4032,7 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>8</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>8</v>
       </c>
@@ -4134,7 +4140,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>7</v>
       </c>
@@ -4236,7 +4242,7 @@
       <c r="P52" s="19"/>
       <c r="Q52" s="19"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>7</v>
       </c>
@@ -4290,7 +4296,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>7</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>2</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>2</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>2</v>
       </c>
@@ -4499,7 +4505,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>2</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>2</v>
       </c>
@@ -4607,7 +4613,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>2</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>2</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
         <v>8</v>
       </c>
@@ -4763,7 +4769,7 @@
       <c r="P62" s="25"/>
       <c r="Q62" s="25"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26">
         <v>8</v>
       </c>
@@ -4859,7 +4865,7 @@
       <c r="P64" s="25"/>
       <c r="Q64" s="25"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20">
         <v>2</v>
       </c>
@@ -4907,7 +4913,7 @@
       <c r="P65" s="21"/>
       <c r="Q65" s="21"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>7</v>
       </c>
@@ -4955,7 +4961,7 @@
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>7</v>
       </c>
@@ -5009,7 +5015,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>7</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>10</v>
       </c>
@@ -5111,7 +5117,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
         <v>2</v>
       </c>
@@ -5159,7 +5165,7 @@
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
         <v>2</v>
       </c>
@@ -5213,7 +5219,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
         <v>2</v>
       </c>
@@ -5267,7 +5273,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>7</v>
       </c>
@@ -5315,7 +5321,7 @@
       <c r="P73" s="17"/>
       <c r="Q73" s="17"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>7</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>7</v>
       </c>
@@ -5423,7 +5429,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26">
         <v>8</v>
       </c>
@@ -5471,7 +5477,7 @@
       <c r="P76" s="27"/>
       <c r="Q76" s="27"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>7</v>
       </c>
@@ -5519,7 +5525,7 @@
       <c r="P77" s="13"/>
       <c r="Q77" s="13"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>7</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>7</v>
       </c>
@@ -5627,7 +5633,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>8</v>
       </c>
@@ -5675,7 +5681,7 @@
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>8</v>
       </c>

--- a/data/horarios/horarios-de-nivelacion-procesados.xlsx
+++ b/data/horarios/horarios-de-nivelacion-procesados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427EDAC0-8927-411D-B6AC-294642E0588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC0CE0-9CBB-4FC7-BC2D-503569888E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{99FAE42D-B215-4180-9DA5-7D453DC9DB15}"/>
   </bookViews>
@@ -572,9 +572,6 @@
     <t>MATEMÁTICA II</t>
   </si>
   <si>
-    <t>314</t>
-  </si>
-  <si>
     <t>09367374</t>
   </si>
   <si>
@@ -849,6 +846,9 @@
   </si>
   <si>
     <t>111883</t>
+  </si>
+  <si>
+    <t>402</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,8 @@
   <autoFilter ref="A1:Q81" xr:uid="{DC0E0ADC-44B0-4CEF-BCCC-97D20B41F157}">
     <filterColumn colId="3">
       <filters>
-        <filter val="GESTION DEL RIESGO FINANCIERO"/>
+        <filter val="ANALISIS E INTERPRETACION DE INFORMACIÓN FINANCIERA"/>
+        <filter val="ANÁLISIS E INTERPRETACIÓN DE INFORMACIÓN FINANCIERA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1526,7 +1527,7 @@
   <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1845,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="4" t="b">
-        <f t="shared" ref="N6:N14" si="1">NOT(ISBLANK(O6))</f>
+        <f t="shared" ref="N6:N13" si="1">NOT(ISBLANK(O6))</f>
         <v>1</v>
       </c>
       <c r="O6" s="5" t="s">
@@ -2023,7 +2024,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
@@ -2071,7 +2072,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>8</v>
       </c>
@@ -2280,8 +2281,7 @@
         <v>41</v>
       </c>
       <c r="N14" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>109</v>
@@ -3984,15 +3984,15 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>45</v>
@@ -4032,15 +4032,15 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>8</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>163</v>
@@ -4086,7 +4086,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>8</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>8</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>177</v>
@@ -4366,28 +4366,28 @@
         <v>52</v>
       </c>
       <c r="F55" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="I55" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="J55" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>165</v>
       </c>
       <c r="L55" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="M55" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="M55" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="N55" s="12" t="b">
         <f t="shared" si="15"/>
@@ -4405,7 +4405,7 @@
         <v>103</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>177</v>
@@ -4414,19 +4414,19 @@
         <v>52</v>
       </c>
       <c r="F56" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="H56" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H56" s="12" t="s">
+      <c r="I56" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="J56" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>56</v>
@@ -4442,13 +4442,13 @@
         <v>1</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P56" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -4459,7 +4459,7 @@
         <v>27</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>177</v>
@@ -4468,19 +4468,19 @@
         <v>52</v>
       </c>
       <c r="F57" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="I57" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="J57" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>56</v>
@@ -4496,13 +4496,13 @@
         <v>1</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P57" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -4513,7 +4513,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>177</v>
@@ -4522,19 +4522,19 @@
         <v>52</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="H58" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="I58" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="J58" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>56</v>
@@ -4550,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P58" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>177</v>
@@ -4576,19 +4576,19 @@
         <v>52</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="H59" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="I59" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I59" s="12" t="s">
+      <c r="J59" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>56</v>
@@ -4604,13 +4604,13 @@
         <v>1</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P59" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -4621,7 +4621,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>177</v>
@@ -4630,19 +4630,19 @@
         <v>52</v>
       </c>
       <c r="F60" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="I60" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I60" s="12" t="s">
+      <c r="J60" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>56</v>
@@ -4658,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P60" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -4675,7 +4675,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>177</v>
@@ -4684,19 +4684,19 @@
         <v>52</v>
       </c>
       <c r="F61" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="H61" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="I61" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I61" s="12" t="s">
+      <c r="J61" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>56</v>
@@ -4712,13 +4712,13 @@
         <v>1</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P61" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -4729,10 +4729,10 @@
         <v>103</v>
       </c>
       <c r="C62" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>191</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>52</v>
@@ -4741,22 +4741,22 @@
         <v>164</v>
       </c>
       <c r="G62" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="I62" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I62" s="24" t="s">
+      <c r="J62" s="24" t="s">
         <v>194</v>
-      </c>
-      <c r="J62" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>165</v>
       </c>
       <c r="L62" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M62" s="25" t="s">
         <v>40</v>
@@ -4777,10 +4777,10 @@
         <v>26</v>
       </c>
       <c r="C63" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="E63" s="27" t="s">
         <v>52</v>
@@ -4795,7 +4795,7 @@
         <v>90</v>
       </c>
       <c r="I63" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J63" s="26" t="s">
         <v>102</v>
@@ -4817,7 +4817,7 @@
       <c r="P63" s="27"/>
       <c r="Q63" s="27"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
         <v>10</v>
       </c>
@@ -4825,28 +4825,28 @@
         <v>26</v>
       </c>
       <c r="C64" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="E64" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F64" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="25" t="s">
+      <c r="G64" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="H64" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="H64" s="24" t="s">
+      <c r="I64" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I64" s="24" t="s">
+      <c r="J64" s="24" t="s">
         <v>205</v>
-      </c>
-      <c r="J64" s="24" t="s">
-        <v>206</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>137</v>
@@ -4873,28 +4873,28 @@
         <v>17</v>
       </c>
       <c r="C65" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="E65" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E65" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F65" s="21" t="s">
+      <c r="G65" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="H65" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="H65" s="20" t="s">
+      <c r="I65" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="J65" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="J65" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="K65" s="20" t="s">
         <v>137</v>
@@ -4921,10 +4921,10 @@
         <v>17</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>52</v>
@@ -4933,16 +4933,16 @@
         <v>151</v>
       </c>
       <c r="G66" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="I66" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="I66" s="28" t="s">
+      <c r="J66" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="J66" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="K66" s="28" t="s">
         <v>137</v>
@@ -4969,10 +4969,10 @@
         <v>103</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>52</v>
@@ -4981,16 +4981,16 @@
         <v>151</v>
       </c>
       <c r="G67" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="I67" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="I67" s="28" t="s">
+      <c r="J67" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="J67" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="K67" s="28" t="s">
         <v>56</v>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="O67" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P67" s="29" t="s">
         <v>52</v>
@@ -5023,10 +5023,10 @@
         <v>27</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>52</v>
@@ -5035,16 +5035,16 @@
         <v>151</v>
       </c>
       <c r="G68" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="I68" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="I68" s="28" t="s">
+      <c r="J68" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="J68" s="28" t="s">
-        <v>222</v>
       </c>
       <c r="K68" s="28" t="s">
         <v>56</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P68" s="29" t="s">
         <v>52</v>
@@ -5077,10 +5077,10 @@
         <v>26</v>
       </c>
       <c r="C69" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>52</v>
@@ -5089,16 +5089,16 @@
         <v>88</v>
       </c>
       <c r="G69" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="I69" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="J69" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>228</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>137</v>
@@ -5107,7 +5107,7 @@
         <v>93</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N69" s="14" t="b">
         <f t="shared" si="16"/>
@@ -5125,28 +5125,28 @@
         <v>17</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G70" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G70" s="23" t="s">
+      <c r="H70" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="H70" s="22" t="s">
+      <c r="I70" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="I70" s="22" t="s">
+      <c r="J70" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="K70" s="22" t="s">
         <v>92</v>
@@ -5173,28 +5173,28 @@
         <v>103</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E71" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G71" s="23" t="s">
+      <c r="H71" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="H71" s="22" t="s">
+      <c r="I71" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="I71" s="22" t="s">
+      <c r="J71" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="J71" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="K71" s="22" t="s">
         <v>56</v>
@@ -5210,13 +5210,13 @@
         <v>1</v>
       </c>
       <c r="O71" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P71" s="23" t="s">
         <v>52</v>
       </c>
       <c r="Q71" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5227,28 +5227,28 @@
         <v>27</v>
       </c>
       <c r="C72" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="E72" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E72" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="G72" s="23" t="s">
+      <c r="H72" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="H72" s="22" t="s">
+      <c r="I72" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="I72" s="22" t="s">
+      <c r="J72" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="J72" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="K72" s="22" t="s">
         <v>56</v>
@@ -5264,13 +5264,13 @@
         <v>1</v>
       </c>
       <c r="O72" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P72" s="23" t="s">
         <v>52</v>
       </c>
       <c r="Q72" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
@@ -5281,10 +5281,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>52</v>
@@ -5293,16 +5293,16 @@
         <v>151</v>
       </c>
       <c r="G73" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H73" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="I73" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="J73" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="K73" s="16" t="s">
         <v>92</v>
@@ -5329,10 +5329,10 @@
         <v>103</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>52</v>
@@ -5341,16 +5341,16 @@
         <v>151</v>
       </c>
       <c r="G74" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H74" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H74" s="16" t="s">
+      <c r="I74" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I74" s="16" t="s">
+      <c r="J74" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>56</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P74" s="17" t="s">
         <v>52</v>
@@ -5383,10 +5383,10 @@
         <v>27</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>52</v>
@@ -5395,16 +5395,16 @@
         <v>151</v>
       </c>
       <c r="G75" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H75" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="I75" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I75" s="16" t="s">
+      <c r="J75" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>246</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>56</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="O75" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P75" s="17" t="s">
         <v>52</v>
@@ -5437,10 +5437,10 @@
         <v>26</v>
       </c>
       <c r="C76" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="26" t="s">
         <v>247</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>248</v>
       </c>
       <c r="E76" s="27" t="s">
         <v>52</v>
@@ -5449,22 +5449,22 @@
         <v>164</v>
       </c>
       <c r="G76" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="H76" s="26" t="s">
+      <c r="I76" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="J76" s="26" t="s">
         <v>251</v>
-      </c>
-      <c r="J76" s="26" t="s">
-        <v>252</v>
       </c>
       <c r="K76" s="26" t="s">
         <v>92</v>
       </c>
       <c r="L76" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M76" s="27" t="s">
         <v>41</v>
@@ -5485,10 +5485,10 @@
         <v>17</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>52</v>
@@ -5497,16 +5497,16 @@
         <v>151</v>
       </c>
       <c r="G77" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H77" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="I77" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="J77" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="J77" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>24</v>
@@ -5515,7 +5515,7 @@
         <v>84</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N77" s="12" t="b">
         <f t="shared" si="17"/>
@@ -5533,10 +5533,10 @@
         <v>103</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>52</v>
@@ -5545,16 +5545,16 @@
         <v>151</v>
       </c>
       <c r="G78" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="I78" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="I78" s="12" t="s">
+      <c r="J78" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>56</v>
@@ -5587,10 +5587,10 @@
         <v>27</v>
       </c>
       <c r="C79" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>52</v>
@@ -5599,16 +5599,16 @@
         <v>151</v>
       </c>
       <c r="G79" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H79" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="I79" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="I79" s="12" t="s">
+      <c r="J79" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="J79" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>56</v>
@@ -5641,10 +5641,10 @@
         <v>103</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>52</v>
@@ -5653,16 +5653,16 @@
         <v>88</v>
       </c>
       <c r="G80" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="I80" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="I80" s="16" t="s">
+      <c r="J80" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="K80" s="16" t="s">
         <v>38</v>
@@ -5671,7 +5671,7 @@
         <v>76</v>
       </c>
       <c r="M80" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N80" s="16" t="b">
         <f t="shared" si="17"/>
@@ -5689,10 +5689,10 @@
         <v>103</v>
       </c>
       <c r="C81" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>52</v>
@@ -5701,16 +5701,16 @@
         <v>88</v>
       </c>
       <c r="G81" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="H81" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="I81" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="I81" s="16" t="s">
+      <c r="J81" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="J81" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="K81" s="16" t="s">
         <v>56</v>
@@ -5738,8 +5738,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>